--- a/Dispositivo ESP32/Lista de Componentes.xlsx
+++ b/Dispositivo ESP32/Lista de Componentes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renato\Desktop\Trabalho de Conclusão de Curso\Trabalho-de-Conclusao-de-Curso-em-Engenharia-da-Computacao\Dispositivo ESP32\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2416868-53E3-4354-8740-C511C7D14695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Lista de Materiais</t>
   </si>
@@ -49,15 +55,12 @@
   </si>
   <si>
     <t>Resistor 270Ω</t>
-  </si>
-  <si>
-    <t>Resistor 1kΩ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,9 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,6 +219,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,14 +232,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -346,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,16 +542,16 @@
   <sheetData>
     <row r="1" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +559,7 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
     </row>
@@ -561,7 +567,7 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -569,7 +575,7 @@
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -577,7 +583,7 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
     </row>
@@ -585,7 +591,7 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -593,7 +599,7 @@
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -601,24 +607,16 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -643,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
